--- a/多波束测线问题(2023B)/result2.xlsx
+++ b/多波束测线问题(2023B)/result2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17951" windowHeight="9767"/>
+    <workbookView windowWidth="18288" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +61,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -532,148 +525,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1064,28 +1057,28 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>416.692328031631</v>
+        <v>415.692497577683</v>
       </c>
       <c r="D3" s="1">
-        <v>416.66504311335</v>
+        <v>466.091395548792</v>
       </c>
       <c r="E3" s="1">
-        <v>416.637758195068</v>
+        <v>516.490293519902</v>
       </c>
       <c r="F3" s="1">
-        <v>416.610473276787</v>
+        <v>566.889191491012</v>
       </c>
       <c r="G3" s="1">
-        <v>416.583188358506</v>
+        <v>617.288089462121</v>
       </c>
       <c r="H3" s="1">
-        <v>416.555903440224</v>
+        <v>667.686987433231</v>
       </c>
       <c r="I3" s="1">
-        <v>416.528618521943</v>
+        <v>718.085885404341</v>
       </c>
       <c r="J3" s="1">
-        <v>416.501333603662</v>
+        <v>768.484783375451</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:10">
@@ -1094,28 +1087,28 @@
         <v>45</v>
       </c>
       <c r="C4" s="1">
-        <v>416.19163761626</v>
+        <v>415.692345731752</v>
       </c>
       <c r="D4" s="1">
-        <v>416.172369650752</v>
+        <v>451.329735233671</v>
       </c>
       <c r="E4" s="1">
-        <v>416.153101685243</v>
+        <v>486.967124735589</v>
       </c>
       <c r="F4" s="1">
-        <v>416.133833719734</v>
+        <v>522.604514237507</v>
       </c>
       <c r="G4" s="1">
-        <v>416.114565754225</v>
+        <v>558.241903739425</v>
       </c>
       <c r="H4" s="1">
-        <v>416.095297788716</v>
+        <v>593.879293241343</v>
       </c>
       <c r="I4" s="1">
-        <v>416.076029823207</v>
+        <v>629.516682743261</v>
       </c>
       <c r="J4" s="1">
-        <v>416.056761857698</v>
+        <v>665.154072245179</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:10">
@@ -1154,28 +1147,28 @@
         <v>135</v>
       </c>
       <c r="C6" s="1">
-        <v>416.19163761626</v>
+        <v>415.692345731752</v>
       </c>
       <c r="D6" s="1">
-        <v>416.210905581769</v>
+        <v>380.054956229834</v>
       </c>
       <c r="E6" s="1">
-        <v>416.230173547278</v>
+        <v>344.417566727916</v>
       </c>
       <c r="F6" s="1">
-        <v>416.249441512787</v>
+        <v>308.780177225998</v>
       </c>
       <c r="G6" s="1">
-        <v>416.268709478296</v>
+        <v>273.14278772408</v>
       </c>
       <c r="H6" s="1">
-        <v>416.287977443805</v>
+        <v>237.505398222162</v>
       </c>
       <c r="I6" s="1">
-        <v>416.307245409314</v>
+        <v>201.868008720244</v>
       </c>
       <c r="J6" s="1">
-        <v>416.326513374823</v>
+        <v>166.230619218326</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:10">
@@ -1184,28 +1177,28 @@
         <v>180</v>
       </c>
       <c r="C7" s="1">
-        <v>416.692328031631</v>
+        <v>415.692497577683</v>
       </c>
       <c r="D7" s="1">
-        <v>416.719612949913</v>
+        <v>365.293599606573</v>
       </c>
       <c r="E7" s="1">
-        <v>416.746897868194</v>
+        <v>314.894701635463</v>
       </c>
       <c r="F7" s="1">
-        <v>416.774182786475</v>
+        <v>264.495803664353</v>
       </c>
       <c r="G7" s="1">
-        <v>416.801467704757</v>
+        <v>214.096905693244</v>
       </c>
       <c r="H7" s="1">
-        <v>416.828752623038</v>
+        <v>163.698007722134</v>
       </c>
       <c r="I7" s="1">
-        <v>416.856037541319</v>
+        <v>113.299109751024</v>
       </c>
       <c r="J7" s="1">
-        <v>416.883322459601</v>
+        <v>62.9002117799145</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:10">
@@ -1214,28 +1207,28 @@
         <v>225</v>
       </c>
       <c r="C8" s="1">
-        <v>416.19163761626</v>
+        <v>415.692345731752</v>
       </c>
       <c r="D8" s="1">
-        <v>416.210905581769</v>
+        <v>380.054956229834</v>
       </c>
       <c r="E8" s="1">
-        <v>416.230173547278</v>
+        <v>344.417566727916</v>
       </c>
       <c r="F8" s="1">
-        <v>416.249441512787</v>
+        <v>308.780177225998</v>
       </c>
       <c r="G8" s="1">
-        <v>416.268709478296</v>
+        <v>273.14278772408</v>
       </c>
       <c r="H8" s="1">
-        <v>416.287977443805</v>
+        <v>237.505398222162</v>
       </c>
       <c r="I8" s="1">
-        <v>416.307245409314</v>
+        <v>201.868008720244</v>
       </c>
       <c r="J8" s="1">
-        <v>416.326513374823</v>
+        <v>166.230619218326</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:10">
@@ -1274,29 +1267,37 @@
         <v>315</v>
       </c>
       <c r="C10" s="1">
-        <v>416.19163761626</v>
+        <v>415.692345731752</v>
       </c>
       <c r="D10" s="1">
-        <v>416.172369650752</v>
+        <v>451.329735233671</v>
       </c>
       <c r="E10" s="1">
-        <v>416.153101685243</v>
+        <v>486.967124735589</v>
       </c>
       <c r="F10" s="1">
-        <v>416.133833719734</v>
+        <v>522.604514237507</v>
       </c>
       <c r="G10" s="1">
-        <v>416.114565754225</v>
+        <v>558.241903739425</v>
       </c>
       <c r="H10" s="1">
-        <v>416.095297788716</v>
+        <v>593.879293241343</v>
       </c>
       <c r="I10" s="1">
-        <v>416.076029823207</v>
+        <v>629.516682743261</v>
       </c>
       <c r="J10" s="1">
-        <v>416.056761857698</v>
-      </c>
+        <v>665.154072245179</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="9:10">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" ht="15.6" spans="7:8">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
